--- a/Symphony/2021/June/All Details/20.06.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/June/All Details/20.06.2021/MC Bank Statement June-2021.xlsx
@@ -3195,6 +3195,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3222,22 +3234,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5112,7 +5112,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5515,11 +5515,11 @@
         <v>1000000</v>
       </c>
       <c r="D23" s="167">
-        <v>500000</v>
+        <v>450000</v>
       </c>
       <c r="E23" s="39">
         <f>E22+C23-D23</f>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="2"/>
@@ -5532,7 +5532,7 @@
       <c r="D24" s="37"/>
       <c r="E24" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="2"/>
@@ -5545,7 +5545,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="2"/>
@@ -5558,7 +5558,7 @@
       <c r="D26" s="37"/>
       <c r="E26" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="2"/>
@@ -5571,7 +5571,7 @@
       <c r="D27" s="37"/>
       <c r="E27" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="2"/>
@@ -5584,7 +5584,7 @@
       <c r="D28" s="37"/>
       <c r="E28" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="2"/>
@@ -5597,7 +5597,7 @@
       <c r="D29" s="37"/>
       <c r="E29" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="2"/>
@@ -5610,7 +5610,7 @@
       <c r="D30" s="37"/>
       <c r="E30" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="2"/>
@@ -5623,7 +5623,7 @@
       <c r="D31" s="37"/>
       <c r="E31" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="2"/>
@@ -5636,7 +5636,7 @@
       <c r="D32" s="37"/>
       <c r="E32" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="2"/>
@@ -5649,7 +5649,7 @@
       <c r="D33" s="40"/>
       <c r="E33" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="2"/>
@@ -5662,7 +5662,7 @@
       <c r="D34" s="37"/>
       <c r="E34" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="2"/>
@@ -5675,7 +5675,7 @@
       <c r="D35" s="37"/>
       <c r="E35" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="2"/>
@@ -5688,7 +5688,7 @@
       <c r="D36" s="37"/>
       <c r="E36" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="2"/>
@@ -5701,7 +5701,7 @@
       <c r="D37" s="37"/>
       <c r="E37" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="2"/>
@@ -5714,7 +5714,7 @@
       <c r="D38" s="37"/>
       <c r="E38" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="2"/>
@@ -5727,7 +5727,7 @@
       <c r="D39" s="37"/>
       <c r="E39" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="2"/>
@@ -5740,7 +5740,7 @@
       <c r="D40" s="37"/>
       <c r="E40" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="2"/>
@@ -5753,7 +5753,7 @@
       <c r="D41" s="37"/>
       <c r="E41" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="2"/>
@@ -5766,7 +5766,7 @@
       <c r="D42" s="37"/>
       <c r="E42" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="2"/>
@@ -5779,7 +5779,7 @@
       <c r="D43" s="37"/>
       <c r="E43" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="2"/>
@@ -5792,7 +5792,7 @@
       <c r="D44" s="37"/>
       <c r="E44" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="2"/>
@@ -5805,7 +5805,7 @@
       <c r="D45" s="37"/>
       <c r="E45" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="2"/>
@@ -5818,7 +5818,7 @@
       <c r="D46" s="37"/>
       <c r="E46" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="2"/>
@@ -5831,7 +5831,7 @@
       <c r="D47" s="37"/>
       <c r="E47" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="2"/>
@@ -5844,7 +5844,7 @@
       <c r="D48" s="37"/>
       <c r="E48" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="2"/>
@@ -5857,7 +5857,7 @@
       <c r="D49" s="37"/>
       <c r="E49" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="2"/>
@@ -5870,7 +5870,7 @@
       <c r="D50" s="37"/>
       <c r="E50" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="2"/>
@@ -5883,7 +5883,7 @@
       <c r="D51" s="37"/>
       <c r="E51" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="2"/>
@@ -5896,7 +5896,7 @@
       <c r="D52" s="37"/>
       <c r="E52" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="2"/>
@@ -5909,7 +5909,7 @@
       <c r="D53" s="37"/>
       <c r="E53" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="2"/>
@@ -5922,7 +5922,7 @@
       <c r="D54" s="37"/>
       <c r="E54" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="2"/>
@@ -5935,7 +5935,7 @@
       <c r="D55" s="37"/>
       <c r="E55" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="2"/>
@@ -5947,7 +5947,7 @@
       <c r="D56" s="37"/>
       <c r="E56" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="2"/>
@@ -5959,7 +5959,7 @@
       <c r="D57" s="37"/>
       <c r="E57" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="2"/>
@@ -5971,7 +5971,7 @@
       <c r="D58" s="37"/>
       <c r="E58" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="2"/>
@@ -5983,7 +5983,7 @@
       <c r="D59" s="37"/>
       <c r="E59" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="2"/>
@@ -5995,7 +5995,7 @@
       <c r="D60" s="37"/>
       <c r="E60" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F60" s="30"/>
       <c r="G60" s="2"/>
@@ -6007,7 +6007,7 @@
       <c r="D61" s="37"/>
       <c r="E61" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F61" s="30"/>
       <c r="G61" s="2"/>
@@ -6019,7 +6019,7 @@
       <c r="D62" s="37"/>
       <c r="E62" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="2"/>
@@ -6031,7 +6031,7 @@
       <c r="D63" s="37"/>
       <c r="E63" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F63" s="30"/>
       <c r="G63" s="2"/>
@@ -6043,7 +6043,7 @@
       <c r="D64" s="37"/>
       <c r="E64" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="2"/>
@@ -6055,7 +6055,7 @@
       <c r="D65" s="37"/>
       <c r="E65" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F65" s="30"/>
       <c r="G65" s="2"/>
@@ -6067,7 +6067,7 @@
       <c r="D66" s="37"/>
       <c r="E66" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="2"/>
@@ -6079,7 +6079,7 @@
       <c r="D67" s="37"/>
       <c r="E67" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="2"/>
@@ -6091,7 +6091,7 @@
       <c r="D68" s="37"/>
       <c r="E68" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="2"/>
@@ -6103,7 +6103,7 @@
       <c r="D69" s="37"/>
       <c r="E69" s="39">
         <f t="shared" si="0"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="2"/>
@@ -6115,7 +6115,7 @@
       <c r="D70" s="37"/>
       <c r="E70" s="39">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="2"/>
@@ -6127,7 +6127,7 @@
       <c r="D71" s="37"/>
       <c r="E71" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="2"/>
@@ -6139,7 +6139,7 @@
       <c r="D72" s="37"/>
       <c r="E72" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="2"/>
@@ -6151,7 +6151,7 @@
       <c r="D73" s="37"/>
       <c r="E73" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="2"/>
@@ -6163,7 +6163,7 @@
       <c r="D74" s="37"/>
       <c r="E74" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="2"/>
@@ -6175,7 +6175,7 @@
       <c r="D75" s="37"/>
       <c r="E75" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="2"/>
@@ -6187,7 +6187,7 @@
       <c r="D76" s="37"/>
       <c r="E76" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="2"/>
@@ -6199,7 +6199,7 @@
       <c r="D77" s="37"/>
       <c r="E77" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="2"/>
@@ -6211,7 +6211,7 @@
       <c r="D78" s="37"/>
       <c r="E78" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="2"/>
@@ -6223,7 +6223,7 @@
       <c r="D79" s="37"/>
       <c r="E79" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="2"/>
@@ -6235,7 +6235,7 @@
       <c r="D80" s="37"/>
       <c r="E80" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="2"/>
@@ -6247,7 +6247,7 @@
       <c r="D81" s="37"/>
       <c r="E81" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="2"/>
@@ -6259,7 +6259,7 @@
       <c r="D82" s="37"/>
       <c r="E82" s="39">
         <f t="shared" si="1"/>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="2"/>
@@ -6273,11 +6273,11 @@
       </c>
       <c r="D83" s="39">
         <f>SUM(D5:D77)</f>
-        <v>5650000</v>
+        <v>5600000</v>
       </c>
       <c r="E83" s="63">
         <f>E71</f>
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="2"/>
@@ -6316,67 +6316,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="359" t="s">
+      <c r="A1" s="363" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="359"/>
-      <c r="I1" s="359"/>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="359"/>
-      <c r="N1" s="359"/>
-      <c r="O1" s="359"/>
-      <c r="P1" s="359"/>
-      <c r="Q1" s="359"/>
+      <c r="B1" s="363"/>
+      <c r="C1" s="363"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="363"/>
+      <c r="F1" s="363"/>
+      <c r="G1" s="363"/>
+      <c r="H1" s="363"/>
+      <c r="I1" s="363"/>
+      <c r="J1" s="363"/>
+      <c r="K1" s="363"/>
+      <c r="L1" s="363"/>
+      <c r="M1" s="363"/>
+      <c r="N1" s="363"/>
+      <c r="O1" s="363"/>
+      <c r="P1" s="363"/>
+      <c r="Q1" s="363"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="360" t="s">
+      <c r="A2" s="364" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
-      <c r="N2" s="360"/>
-      <c r="O2" s="360"/>
-      <c r="P2" s="360"/>
-      <c r="Q2" s="360"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="364"/>
+      <c r="P2" s="364"/>
+      <c r="Q2" s="364"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="361" t="s">
+      <c r="A3" s="365" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
-      <c r="K3" s="362"/>
-      <c r="L3" s="362"/>
-      <c r="M3" s="362"/>
-      <c r="N3" s="362"/>
-      <c r="O3" s="362"/>
-      <c r="P3" s="362"/>
-      <c r="Q3" s="363"/>
+      <c r="B3" s="366"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366"/>
+      <c r="F3" s="366"/>
+      <c r="G3" s="366"/>
+      <c r="H3" s="366"/>
+      <c r="I3" s="366"/>
+      <c r="J3" s="366"/>
+      <c r="K3" s="366"/>
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366"/>
+      <c r="P3" s="366"/>
+      <c r="Q3" s="367"/>
       <c r="S3" s="96"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6385,52 +6385,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="364" t="s">
+      <c r="A4" s="368" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="366" t="s">
+      <c r="B4" s="370" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="368" t="s">
+      <c r="C4" s="359" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="368" t="s">
+      <c r="D4" s="359" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="368" t="s">
+      <c r="E4" s="359" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="368" t="s">
+      <c r="F4" s="359" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="368" t="s">
+      <c r="G4" s="359" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="368" t="s">
+      <c r="H4" s="359" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="368" t="s">
+      <c r="I4" s="359" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="368" t="s">
+      <c r="J4" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="368" t="s">
+      <c r="K4" s="359" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="368" t="s">
+      <c r="L4" s="359" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="368" t="s">
+      <c r="M4" s="359" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="368" t="s">
+      <c r="N4" s="359" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="372" t="s">
+      <c r="O4" s="361" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="370" t="s">
+      <c r="P4" s="372" t="s">
         <v>110</v>
       </c>
       <c r="Q4" s="193" t="s">
@@ -6443,22 +6443,22 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="365"/>
-      <c r="B5" s="367"/>
-      <c r="C5" s="369"/>
-      <c r="D5" s="369"/>
-      <c r="E5" s="369"/>
-      <c r="F5" s="369"/>
-      <c r="G5" s="369"/>
-      <c r="H5" s="369"/>
-      <c r="I5" s="369"/>
-      <c r="J5" s="369"/>
-      <c r="K5" s="369"/>
-      <c r="L5" s="369"/>
-      <c r="M5" s="369"/>
-      <c r="N5" s="369"/>
-      <c r="O5" s="373"/>
-      <c r="P5" s="371"/>
+      <c r="A5" s="369"/>
+      <c r="B5" s="371"/>
+      <c r="C5" s="360"/>
+      <c r="D5" s="360"/>
+      <c r="E5" s="360"/>
+      <c r="F5" s="360"/>
+      <c r="G5" s="360"/>
+      <c r="H5" s="360"/>
+      <c r="I5" s="360"/>
+      <c r="J5" s="360"/>
+      <c r="K5" s="360"/>
+      <c r="L5" s="360"/>
+      <c r="M5" s="360"/>
+      <c r="N5" s="360"/>
+      <c r="O5" s="362"/>
+      <c r="P5" s="373"/>
       <c r="Q5" s="194" t="s">
         <v>68</v>
       </c>
@@ -9561,8 +9561,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9580,6 +9578,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9593,8 +9593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -11798,17 +11798,17 @@
         <v>258</v>
       </c>
       <c r="B21" s="94">
-        <v>0</v>
+        <v>511815</v>
       </c>
       <c r="C21" s="94">
-        <v>0</v>
+        <v>613240</v>
       </c>
       <c r="D21" s="94">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="E21" s="94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>614660</v>
       </c>
       <c r="F21" s="251"/>
       <c r="G21" s="216"/>
@@ -13031,23 +13031,23 @@
       </c>
       <c r="B33" s="277">
         <f>SUM(B5:B32)</f>
-        <v>7436780</v>
+        <v>7948595</v>
       </c>
       <c r="C33" s="277">
         <f>SUM(C5:C32)</f>
-        <v>7469997</v>
+        <v>8083237</v>
       </c>
       <c r="D33" s="277">
         <f>SUM(D5:D32)</f>
-        <v>30560</v>
+        <v>31980</v>
       </c>
       <c r="E33" s="277">
         <f>SUM(E5:E32)</f>
-        <v>7500557</v>
+        <v>8115217</v>
       </c>
       <c r="F33" s="278">
         <f>B33-E33</f>
-        <v>-63777</v>
+        <v>-166622</v>
       </c>
       <c r="G33" s="212"/>
       <c r="H33" s="212"/>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="F36" s="263">
         <f>F33-D119+L121</f>
-        <v>102845</v>
+        <v>0</v>
       </c>
       <c r="G36" s="212"/>
       <c r="H36" s="212"/>
@@ -32922,7 +32922,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33079,7 +33079,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="68">
-        <v>1271041</v>
+        <v>1321041</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="53"/>
@@ -33263,7 +33263,7 @@
         <v>259</v>
       </c>
       <c r="E11" s="69">
-        <v>499851</v>
+        <v>449851</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>77</v>
@@ -39306,7 +39306,7 @@
       </c>
       <c r="D1" s="333">
         <f ca="1">TODAY()</f>
-        <v>44367</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="2" spans="1:7">
